--- a/多余.xlsx
+++ b/多余.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elk\vue-project\software\Library-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D5148-E98B-4E16-93C9-596BB86AD7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB568F-F6BD-4E4D-866B-6E46B503FECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>book_name</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>多余信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">多余信息 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +459,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -480,8 +491,14 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
